--- a/biology/Zoologie/Arion_rufus/Arion_rufus.xlsx
+++ b/biology/Zoologie/Arion_rufus/Arion_rufus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande Loche (Arion rufus) est une espèce de mollusques gastéropodes appartenant à la famille des Arionidae. Cette limace de grande taille se rencontre principalement par temps humide, dans les forêts et les prairies.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Arion rufus  (Linnaeus, 1758)[1],
-Nom normalisé : Grande Loche, depuis 2010[2],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Arion rufus  (Linnaeus, 1758),
+Nom normalisé : Grande Loche, depuis 2010,
 Autres noms vulgaires (vulgarisation scientifique) : Grande limace rouge, Arion rouge,
 Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Loche rouge, limace rouge.</t>
         </is>
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande loche est maintenant principalement présente dans les forêts et les prairies humides.
 Dans les jardins et parcelles agricoles, elle a été supplantée par la Loche méridionale (Arion lusitanicus).
@@ -576,7 +592,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande loche est de couleur variant du blanc jaunâtre au jaune, au rouge brique à orangé, au brun et au noir, sans bandes ni taches à l’état adulte ; elle mesure de 10 à 12 cm de long.
 Vestibule antérieur court, large, écrasé ; vestibule postérieur très gros ; pénis plus court, canal déférent moins grêle que Arion ater[réf. nécessaire].
@@ -611,7 +629,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Grande loche sur une feuille, France.
